--- a/GraficoRutasManagua/src/excel/Rutas.xlsx
+++ b/GraficoRutasManagua/src/excel/Rutas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
   <si>
     <t>Ruta</t>
   </si>
@@ -39,39 +39,102 @@
     <t>UCA</t>
   </si>
   <si>
+    <t>Colonia primero de mayo</t>
+  </si>
+  <si>
+    <t>Hospital Lenín Fonseca</t>
+  </si>
+  <si>
     <t>Subasta</t>
   </si>
   <si>
     <t>Metrocentro</t>
   </si>
   <si>
+    <t>Colonia Tenderí</t>
+  </si>
+  <si>
+    <t>Universidad Nacional Agraria (UNA)</t>
+  </si>
+  <si>
     <t>Zumen</t>
   </si>
   <si>
+    <t>Camino de Oriente</t>
+  </si>
+  <si>
+    <t>Parque Las Madres</t>
+  </si>
+  <si>
     <t>Mercado Oriental</t>
   </si>
   <si>
+    <t>Barrio Larreynaga</t>
+  </si>
+  <si>
+    <t>Ciudad Jardín</t>
+  </si>
+  <si>
     <t>Mercado Roberto Huembes</t>
   </si>
   <si>
+    <t>Hospital Bertha Calderón</t>
+  </si>
+  <si>
     <t>San Isidro</t>
   </si>
   <si>
+    <t>Barrio San Judas</t>
+  </si>
+  <si>
+    <t>Rotonda La Centroamérica</t>
+  </si>
+  <si>
+    <t>Colonia Managua</t>
+  </si>
+  <si>
     <t>UNAN</t>
   </si>
   <si>
     <t>Tierra Prometida</t>
   </si>
   <si>
+    <t>Rotonda El Güegüense</t>
+  </si>
+  <si>
     <t>Mercado Israel</t>
   </si>
   <si>
+    <t>Barrio Santa Rosa Sur</t>
+  </si>
+  <si>
     <t>Gancho de Camino</t>
   </si>
   <si>
     <t>Vanegas</t>
   </si>
   <si>
+    <t>Rotonda Rubenia</t>
+  </si>
+  <si>
+    <t>Barrio 19 de Julio</t>
+  </si>
+  <si>
+    <t>Parque Candelaria</t>
+  </si>
+  <si>
+    <t>Hospital Bautista</t>
+  </si>
+  <si>
+    <t>Colonia Centroamérica</t>
+  </si>
+  <si>
+    <t>Rotonda Cristo Rey</t>
+  </si>
+  <si>
+    <t>Parque Héroes y Mártires</t>
+  </si>
+  <si>
     <t>Terminal 111</t>
   </si>
   <si>
@@ -81,15 +144,24 @@
     <t xml:space="preserve">Semaforos del mayoreo </t>
   </si>
   <si>
-    <t xml:space="preserve">Mercado Mayoreo </t>
+    <t>Pista Suburbana</t>
+  </si>
+  <si>
+    <t>Semáforos de Enel Central</t>
   </si>
   <si>
     <t>Villa Libertad</t>
   </si>
   <si>
+    <t>Altamira</t>
+  </si>
+  <si>
     <t>Colonial Los Robles</t>
   </si>
   <si>
+    <t>Semáforos del Seminario</t>
+  </si>
+  <si>
     <t>Colonia Independencia</t>
   </si>
   <si>
@@ -114,7 +186,10 @@
     <t xml:space="preserve">Rubenia  </t>
   </si>
   <si>
-    <t xml:space="preserve">Metrocentro </t>
+    <t>Rotonda La Virgen</t>
+  </si>
+  <si>
+    <t>Colonia Pedro Joaquín Chamorro</t>
   </si>
   <si>
     <t>El Seminario</t>
@@ -124,23 +199,91 @@
 </t>
   </si>
   <si>
+    <t>Universidad Nacional Agraria</t>
+  </si>
+  <si>
     <t>Rubenia</t>
   </si>
   <si>
+    <t>Pista Sabana Grande</t>
+  </si>
+  <si>
     <t>Cuesta el Plomo</t>
   </si>
   <si>
     <t>Miguel Gutiérrez</t>
   </si>
   <si>
-    <t>Camino de Oriente</t>
+    <t>Colonia Nicarao</t>
+  </si>
+  <si>
+    <t>Villa Reconciliación</t>
+  </si>
+  <si>
+    <t>Barrio La Primavera</t>
+  </si>
+  <si>
+    <t>Semáforos de La Robelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Universidad Nacional de Ingeniería (UNI)</t>
+  </si>
+  <si>
+    <t>Colonia 14 de Septiembre</t>
+  </si>
+  <si>
+    <t>El Zumen</t>
+  </si>
+  <si>
+    <t>Villa Fontana</t>
+  </si>
+  <si>
+    <t>Universidad Politécnica (UPOLI)</t>
+  </si>
+  <si>
+    <t>Anexo Villa Libertad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Bertha Calderón
+</t>
+  </si>
+  <si>
+    <t>Siete Sur</t>
+  </si>
+  <si>
+    <t>Reparto San Juan</t>
+  </si>
+  <si>
+    <t>Semáforos del Hospital Militar</t>
+  </si>
+  <si>
+    <t>Barrio Ducualí</t>
+  </si>
+  <si>
+    <t>Hospital Manolo Morales</t>
+  </si>
+  <si>
+    <t>Hospital Alemán Nicaragüense</t>
+  </si>
+  <si>
+    <t>Residencial Las Palmas</t>
+  </si>
+  <si>
+    <t>UCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrio Monseñor Lezcano
+</t>
+  </si>
+  <si>
+    <t>Cementerio Oriental</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -165,6 +308,11 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -182,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -198,12 +346,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -426,7 +577,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="11.38"/>
-    <col customWidth="1" min="2" max="3" width="24.0"/>
+    <col customWidth="1" min="2" max="2" width="35.5"/>
+    <col customWidth="1" min="3" max="3" width="24.0"/>
     <col customWidth="1" min="4" max="4" width="25.0"/>
     <col customWidth="1" min="5" max="7" width="24.0"/>
     <col customWidth="1" min="8" max="26" width="10.63"/>
@@ -489,16 +641,16 @@
       <c r="A7" s="4">
         <v>102.0</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4">
         <v>102.0</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>2</v>
+      <c r="B8" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +658,7 @@
         <v>102.0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -514,23 +666,23 @@
         <v>102.0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4">
         <v>102.0</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>3</v>
+      <c r="B11" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4">
         <v>103.0</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>6</v>
+      <c r="B12" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -538,23 +690,23 @@
         <v>103.0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4">
         <v>103.0</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>3</v>
+      <c r="B14" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4">
         <v>103.0</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>4</v>
+      <c r="B15" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -562,23 +714,23 @@
         <v>103.0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4">
         <v>104.0</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>2</v>
+      <c r="B17" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4">
         <v>104.0</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>7</v>
+      <c r="B18" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -586,15 +738,15 @@
         <v>104.0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4">
         <v>104.0</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>3</v>
+      <c r="B20" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -602,31 +754,31 @@
         <v>104.0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4">
         <v>105.0</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>6</v>
+      <c r="B22" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4">
         <v>105.0</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>9</v>
+      <c r="B23" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="4">
         <v>105.0</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>7</v>
+      <c r="B24" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -634,7 +786,7 @@
         <v>105.0</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -650,7 +802,7 @@
         <v>106.0</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -658,15 +810,15 @@
         <v>106.0</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4">
         <v>106.0</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>9</v>
+      <c r="B29" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -674,15 +826,15 @@
         <v>106.0</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4">
         <v>106.0</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>11</v>
+      <c r="B31" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -690,7 +842,7 @@
         <v>107.0</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -698,15 +850,15 @@
         <v>107.0</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4">
         <v>107.0</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>9</v>
+      <c r="B34" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -714,7 +866,7 @@
         <v>107.0</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -729,8 +881,8 @@
       <c r="A37" s="4">
         <v>109.0</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>11</v>
+      <c r="B37" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -745,24 +897,24 @@
       <c r="A39" s="4">
         <v>109.0</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>4</v>
+      <c r="B39" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4">
         <v>109.0</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>2</v>
+      <c r="B40" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4">
         <v>109.0</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>3</v>
+      <c r="B41" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -778,15 +930,15 @@
         <v>110.0</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="4">
         <v>110.0</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>2</v>
+      <c r="B44" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -801,371 +953,491 @@
       <c r="A46" s="4">
         <v>110.0</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>8</v>
+      <c r="B46" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="6">
+      <c r="A47" s="8">
         <v>111.0</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>18</v>
+      <c r="B47" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="6">
+      <c r="A48" s="8">
         <v>111.0</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>19</v>
+      <c r="B48" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="6">
+      <c r="A49" s="8">
         <v>111.0</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>20</v>
+      <c r="B49" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="6">
+      <c r="A50" s="8">
         <v>111.0</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="6">
+      <c r="A51" s="8">
         <v>111.0</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="8">
+        <v>112.0</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="8">
+        <v>112.0</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="8">
+        <v>112.0</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="8">
+        <v>112.0</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="8">
+        <v>112.0</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="8">
+        <v>114.0</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="8">
+        <v>114.0</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="8">
+        <v>114.0</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="8">
+        <v>114.0</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="8">
+        <v>114.0</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="8">
+        <v>115.0</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="8">
+        <v>115.0</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="8">
+        <v>115.0</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="8">
+        <v>115.0</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="8">
+        <v>115.0</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="8">
+        <v>116.0</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="8">
+        <v>116.0</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="8">
+        <v>116.0</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="8">
+        <v>116.0</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="8">
+        <v>116.0</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="8">
+        <v>119.0</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="8">
+        <v>119.0</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="8">
+        <v>119.0</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="8">
+        <v>119.0</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="8">
+        <v>119.0</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="6">
-        <v>112.0</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="6">
-        <v>112.0</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="6">
-        <v>112.0</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="6">
-        <v>112.0</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="6">
-        <v>112.0</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="6">
-        <v>114.0</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="6">
-        <v>114.0</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="6">
-        <v>114.0</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="6">
-        <v>114.0</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="6">
-        <v>114.0</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="6">
-        <v>115.0</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="6">
-        <v>115.0</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="6">
-        <v>115.0</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="6">
-        <v>115.0</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="6">
-        <v>115.0</v>
-      </c>
-      <c r="B66" s="7" t="s">
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="8">
+        <v>123.0</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="8">
+        <v>123.0</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="8">
+        <v>123.0</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="8">
+        <v>123.0</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="8">
+        <v>123.0</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="8">
+        <v>124.0</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="8">
+        <v>124.0</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="8">
+        <v>124.0</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="8">
+        <v>124.0</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="8">
+        <v>124.0</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="8">
+        <v>125.0</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="8">
+        <v>125.0</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="8">
+        <v>125.0</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="8">
+        <v>125.0</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="8">
+        <v>125.0</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" ht="15.0" customHeight="1">
+      <c r="A92" s="8">
+        <v>126.0</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="8">
+        <v>126.0</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="8">
+        <v>126.0</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="8">
+        <v>126.0</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="8">
+        <v>126.0</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="8">
+        <v>127.0</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="6">
-        <v>116.0</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="6">
-        <v>116.0</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="6">
-        <v>116.0</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="6">
-        <v>116.0</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="6">
-        <v>116.0</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="6">
-        <v>119.0</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="6">
-        <v>119.0</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="6">
-        <v>119.0</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="6">
-        <v>119.0</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="6">
-        <v>119.0</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="4"/>
-      <c r="B77" s="5"/>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="4"/>
-      <c r="B78" s="5"/>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="4"/>
-      <c r="B79" s="5"/>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="4"/>
-      <c r="B80" s="5"/>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="4"/>
-      <c r="B81" s="5"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="4"/>
-      <c r="B82" s="5"/>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="4"/>
-      <c r="B83" s="5"/>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="4"/>
-      <c r="B84" s="5"/>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="4"/>
-      <c r="B85" s="5"/>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="4"/>
-      <c r="B86" s="5"/>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="4"/>
-      <c r="B87" s="5"/>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="4"/>
-      <c r="B88" s="5"/>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="4"/>
-      <c r="B89" s="5"/>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="4"/>
-      <c r="B90" s="5"/>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="4"/>
-      <c r="B91" s="5"/>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="4"/>
-      <c r="B92" s="5"/>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="4"/>
-      <c r="B93" s="5"/>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="4"/>
-      <c r="B94" s="5"/>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="4"/>
-      <c r="B95" s="5"/>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="4"/>
-      <c r="B96" s="5"/>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="4"/>
-      <c r="B97" s="5"/>
-    </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="4"/>
-      <c r="B98" s="5"/>
+      <c r="A98" s="8">
+        <v>127.0</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="4"/>
-      <c r="B99" s="5"/>
+      <c r="A99" s="8">
+        <v>127.0</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="4"/>
-      <c r="B100" s="5"/>
+      <c r="A100" s="8">
+        <v>127.0</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="4"/>
-      <c r="B101" s="5"/>
+      <c r="A101" s="8">
+        <v>127.0</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="4"/>
-      <c r="B102" s="5"/>
+      <c r="A102" s="8">
+        <v>130.0</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="4"/>
-      <c r="B103" s="5"/>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="4"/>
-      <c r="B104" s="5"/>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="4"/>
-      <c r="B105" s="5"/>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="4"/>
-      <c r="B106" s="5"/>
+      <c r="A103" s="8">
+        <v>130.0</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="8">
+        <v>130.0</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" ht="15.0" customHeight="1">
+      <c r="A105" s="8">
+        <v>130.0</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" ht="15.0" customHeight="1">
+      <c r="A106" s="8">
+        <v>130.0</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="4"/>

--- a/GraficoRutasManagua/src/excel/Rutas.xlsx
+++ b/GraficoRutasManagua/src/excel/Rutas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7533855fb1921b0c/Escritorio/DesarrolloProyecto/GraficoRutasManagua/src/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="390" documentId="11_0615662034528F8DAB31FC19030DC1F04C6D4D79" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AFE4F72-1508-41BE-B06B-A007123A2A14}"/>
+  <xr:revisionPtr revIDLastSave="399" documentId="11_0615662034528F8DAB31FC19030DC1F04C6D4D79" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCA1CBBD-67CB-4C5A-B2F8-752544C429C9}"/>
   <bookViews>
     <workbookView xWindow="4365" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
   <si>
     <t>Ruta</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Reparto Schick</t>
   </si>
   <si>
-    <t xml:space="preserve">Mercado Israel Lewites  </t>
-  </si>
-  <si>
     <t xml:space="preserve">UNAN </t>
   </si>
   <si>
@@ -162,10 +159,6 @@
     <t>El Seminario</t>
   </si>
   <si>
-    <t xml:space="preserve">Villa Libertad
-</t>
-  </si>
-  <si>
     <t>Universidad Nacional Agraria</t>
   </si>
   <si>
@@ -187,14 +180,7 @@
     <t>Colonia 14 de Septiembre</t>
   </si>
   <si>
-    <t>El Zumen</t>
-  </si>
-  <si>
     <t>Villa Fontana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Bertha Calderón
-</t>
   </si>
   <si>
     <t>Siete Sur</t>
@@ -514,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -536,10 +522,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1292,13 +1278,13 @@
         <v>114</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C55" s="7">
-        <v>12.1272151687277</v>
+        <v>12.1274039779763</v>
       </c>
       <c r="D55" s="7">
-        <v>-86.300351380314893</v>
+        <v>-86.300501584016104</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1306,7 +1292,7 @@
         <v>114</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C56" s="7">
         <v>12.1062738525792</v>
@@ -1320,7 +1306,7 @@
         <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C57" s="7">
         <v>12.1448243202128</v>
@@ -1348,7 +1334,7 @@
         <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C59" s="7">
         <v>12.139491477245</v>
@@ -1362,7 +1348,7 @@
         <v>115</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C60" s="7">
         <v>12.132623713040299</v>
@@ -1376,7 +1362,7 @@
         <v>116</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C61" s="7">
         <v>12.145162748177199</v>
@@ -1390,7 +1376,7 @@
         <v>116</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C62" s="7">
         <v>12.139491477245</v>
@@ -1404,13 +1390,13 @@
         <v>116</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C63" s="7">
-        <v>12.115252645377</v>
+        <v>12.1128929340439</v>
       </c>
       <c r="D63" s="7">
-        <v>-86.201368112119795</v>
+        <v>-86.203622823227306</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1418,7 +1404,7 @@
         <v>116</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C64" s="7">
         <v>12.137788380052999</v>
@@ -1432,7 +1418,7 @@
         <v>119</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C65" s="7">
         <v>12.1520772955816</v>
@@ -1446,7 +1432,7 @@
         <v>119</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C66" s="7">
         <v>12.137788380052999</v>
@@ -1460,7 +1446,7 @@
         <v>119</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C67" s="7">
         <v>12.096039200909001</v>
@@ -1474,7 +1460,7 @@
         <v>123</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C68" s="7">
         <v>12.127208881690001</v>
@@ -1488,7 +1474,7 @@
         <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C69" s="7">
         <v>12.096039200909001</v>
@@ -1502,7 +1488,7 @@
         <v>123</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C70" s="7">
         <v>12.1334933319051</v>
@@ -1516,7 +1502,7 @@
         <v>123</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C71" s="7">
         <v>12.1531752388782</v>
@@ -1530,7 +1516,7 @@
         <v>124</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C72" s="7">
         <v>12.1334933319051</v>
@@ -1558,7 +1544,7 @@
         <v>124</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C74" s="7">
         <v>12.1271234536081</v>
@@ -1572,13 +1558,13 @@
         <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C75" s="7">
-        <v>12.1278652085552</v>
+        <v>12.1280574438661</v>
       </c>
       <c r="D75" s="7">
-        <v>-86.298838595467501</v>
+        <v>-86.299820643807394</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1586,13 +1572,13 @@
         <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C76" s="7">
-        <v>12.1272151687277</v>
+        <v>12.1274039779763</v>
       </c>
       <c r="D76" s="7">
-        <v>-86.300351380314893</v>
+        <v>-86.300501584016104</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1600,13 +1586,13 @@
         <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C77" s="7">
-        <v>12.1278652085552</v>
+        <v>12.1280574438661</v>
       </c>
       <c r="D77" s="7">
-        <v>-86.298838595467501</v>
+        <v>-86.299820643807394</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1614,7 +1600,7 @@
         <v>125</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C78" s="7">
         <v>12.1082349067922</v>
@@ -1642,13 +1628,13 @@
         <v>126</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C80" s="7">
-        <v>12.124767309779999</v>
+        <v>12.1247987782863</v>
       </c>
       <c r="D80" s="7">
-        <v>-86.297345900704698</v>
+        <v>-86.298290038255502</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1656,7 +1642,7 @@
         <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C81" s="7">
         <v>12.1220924635013</v>
@@ -1670,7 +1656,7 @@
         <v>126</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C82" s="7">
         <v>12.123029919670101</v>
@@ -1684,7 +1670,7 @@
         <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C83" s="7">
         <v>12.120389102443299</v>
@@ -1698,7 +1684,7 @@
         <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C84" s="7">
         <v>12.139491477245</v>
@@ -1726,7 +1712,7 @@
         <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C86" s="7">
         <v>12.1358975054839</v>
@@ -1740,7 +1726,7 @@
         <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C87" s="7">
         <v>12.1220924635013</v>
@@ -1754,7 +1740,7 @@
         <v>130</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C88" s="7">
         <v>12.1474797165627</v>
@@ -1768,7 +1754,7 @@
         <v>130</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C89" s="7">
         <v>12.1230633734679</v>
@@ -1782,13 +1768,13 @@
         <v>130</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C90" s="7">
-        <v>12.1272151687277</v>
+        <v>12.1274039779763</v>
       </c>
       <c r="D90" s="7">
-        <v>-86.300351380314893</v>
+        <v>-86.300501584016104</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1796,7 +1782,7 @@
         <v>130</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C91" s="7">
         <v>12.127208881690001</v>
